--- a/spring02web/src/main/resources/3ma.xlsx
+++ b/spring02web/src/main/resources/3ma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workhome\Test\t20200706\spring02web\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9208B095-2C47-4785-8EF5-BEAD1FA7F1AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5592CA4A-4AB4-4911-B510-8FC49104604D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,9 +105,6 @@
     <t>Shdx_$Bg2zx2</t>
   </si>
   <si>
-    <t>黑龙江</t>
-  </si>
-  <si>
     <t>hbase23</t>
   </si>
   <si>
@@ -322,6 +319,10 @@
   </si>
   <si>
     <t>省份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑龙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -651,7 +652,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -664,7 +665,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -763,266 +764,266 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
   </sheetData>
